--- a/Luban/Datas/Prefab.xlsx
+++ b/Luban/Datas/Prefab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectPoincar\ProjectPoincar\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\200 - 学习\202 - 项目\unity\2.5D\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D440513-FC13-43F6-81F0-646787B3E84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F813D-4B47-4BF2-8C12-71CFC4D2DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="3552" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,186 @@
   <si>
     <t>资源路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Player 0.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Player 1.prefab</t>
+  </si>
+  <si>
+    <t>Player 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Bullet 3.prefab</t>
+  </si>
+  <si>
+    <t>GunPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/GunPrefab.prefab</t>
+  </si>
+  <si>
+    <t>MachineGunPrefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/MachineGunPrefab.prefab</t>
+  </si>
+  <si>
+    <t>ShotGunPrefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/ShotGunPrefab.prefab</t>
+  </si>
+  <si>
+    <t>Bullet 4</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Bullet 4.prefab</t>
+  </si>
+  <si>
+    <t>Bullet 5</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Bullet 5.prefab</t>
+  </si>
+  <si>
+    <t>SicklePrefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/SicklePrefab.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/ShovelPrefab.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShovelPrefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/PitchforkPrefab.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PitchforkPrefab</t>
+  </si>
+  <si>
+    <t>SickleBulletPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/SickleBulletPrefab.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Enemys/BasicEnemy.prefab</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Enemys/SpikerEnemy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Enemys/DashEnemy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Enemys/TurretEnemy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Enemys/CasterEnemy.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyBullet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/EnemyBullet1.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyBullet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyBullet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/EnemyBullet2.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/EnemyBullet3.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpikerEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DashEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurretEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CasterEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Items/Gold.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/EnemyHp.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Items/BoxPrefab.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Items/HealthPack.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthPack</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/Items/Mag.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mag</t>
   </si>
 </sst>
 </file>
@@ -380,23 +560,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="71.25" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -412,7 +592,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -428,7 +608,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -444,21 +624,213 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Datas/Prefab.xlsx
+++ b/Luban/Datas/Prefab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\200 - 学习\202 - 项目\unity\2.5D\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F813D-4B47-4BF2-8C12-71CFC4D2DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9673774-3E9B-4066-BFE0-2FEA09A5F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3552" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,13 @@
   </si>
   <si>
     <t>Mag</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/Component/MapSelect/LevelCell.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelCell</t>
   </si>
 </sst>
 </file>
@@ -560,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -828,6 +835,14 @@
         <v>56</v>
       </c>
     </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
